--- a/scripts/deduplicate_project/results/excel/all_cppcheck.xlsx
+++ b/scripts/deduplicate_project/results/excel/all_cppcheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hothost/Documents/git/kconfig_case_studies/scripts/deduplicate_project/results/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1415B7B-28F3-6E45-9B81-0B161DCCE3E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B8796-D6ED-E146-AB9C-B5841868E1A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="460" windowWidth="28040" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId3"/>
+    <pivotCache cacheId="106" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="102">
   <si>
     <t>line</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Variability</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
 </sst>
 </file>
@@ -933,7 +936,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -941,17 +944,13 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -981,17 +980,13 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1021,6 +1016,22 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1041,6 +1052,22 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1052,6 +1079,94 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3544,16 +3659,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1860550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4939,7 +5054,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DA5F2EA-AF08-664E-832D-A5EE0B3F5BB1}" name="PivotTable10" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DA5F2EA-AF08-664E-832D-A5EE0B3F5BB1}" name="PivotTable10" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -5067,7 +5182,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0ACAC9F8-6959-C244-975D-8497E59A0E46}" name="Table1" displayName="Table1" ref="A1:G146" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0ACAC9F8-6959-C244-975D-8497E59A0E46}" name="Table1" displayName="Table1" ref="A1:G147" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:G146" xr:uid="{ABDCC879-D297-8A42-B672-0D51CF61DC24}">
     <filterColumn colId="5">
       <filters>
@@ -5144,16 +5259,16 @@
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:G146">
-    <sortCondition ref="E1:E146"/>
+    <sortCondition descending="1" ref="F1:F146"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{38684872-59FD-B749-ADD9-CC076DE34D64}" name="line" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E3D5874B-C3D0-704F-9F15-7E8B2DFE92E2}" name="filename" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{74B44BCA-EB21-6F40-AB95-1C67F226ABD4}" name="tool" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C0D42D70-B121-CD4D-9509-86191E3AAE84}" name="target" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{ADB9BA3B-DF38-4442-8D0E-2C3D5E001B95}" name="type" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D711263D-B478-4343-8F59-3AD8448BF315}" name="num_configs" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{75751F4D-681D-4F4B-8E21-51EDAFD39C24}" name="variability" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{38684872-59FD-B749-ADD9-CC076DE34D64}" name="line" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E3D5874B-C3D0-704F-9F15-7E8B2DFE92E2}" name="filename" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{74B44BCA-EB21-6F40-AB95-1C67F226ABD4}" name="tool" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C0D42D70-B121-CD4D-9509-86191E3AAE84}" name="target" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{ADB9BA3B-DF38-4442-8D0E-2C3D5E001B95}" name="type" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D711263D-B478-4343-8F59-3AD8448BF315}" name="num_configs" totalsRowLabel="53" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{75751F4D-681D-4F4B-8E21-51EDAFD39C24}" name="variability" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5591,10 +5706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T146"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5814,34 +5929,34 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="5">
-        <v>491</v>
-      </c>
-      <c r="G10" s="5" t="b">
+      <c r="A10" s="11">
+        <v>740</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="11">
+        <v>995</v>
+      </c>
+      <c r="G10" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
-        <v>138</v>
+        <v>628</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>8</v>
@@ -5849,11 +5964,11 @@
       <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>94</v>
+      <c r="E11" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F11" s="10">
-        <v>486</v>
+        <v>990</v>
       </c>
       <c r="G11" s="10" t="b">
         <v>1</v>
@@ -5861,10 +5976,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>8</v>
@@ -5872,11 +5987,11 @@
       <c r="D12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>94</v>
+      <c r="E12" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F12" s="11">
-        <v>486</v>
+        <v>983</v>
       </c>
       <c r="G12" s="11" t="b">
         <v>1</v>
@@ -5884,10 +5999,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
-        <v>138</v>
+        <v>1217</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>8</v>
@@ -5895,11 +6010,11 @@
       <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>94</v>
+      <c r="E13" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F13" s="10">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>1</v>
@@ -5907,10 +6022,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>8</v>
@@ -5918,59 +6033,59 @@
       <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>94</v>
+      <c r="E14" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="11">
-        <v>1</v>
+        <v>978</v>
       </c>
       <c r="G14" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>188</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="5">
-        <v>665</v>
-      </c>
-      <c r="G15" s="5" t="b">
+      <c r="A15" s="10">
+        <v>119</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="10">
+        <v>978</v>
+      </c>
+      <c r="G15" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>118</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="5">
-        <v>522</v>
-      </c>
-      <c r="G16" s="5" t="b">
+      <c r="A16" s="11">
+        <v>281</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="11">
+        <v>969</v>
+      </c>
+      <c r="G16" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J16" t="s">
@@ -6005,25 +6120,25 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>96</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="6">
-        <v>474</v>
-      </c>
-      <c r="G17" s="6" t="b">
+      <c r="A17" s="10">
+        <v>282</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="10">
+        <v>969</v>
+      </c>
+      <c r="G17" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J17" s="12">
@@ -6058,25 +6173,25 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <v>586</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="6">
-        <v>694</v>
-      </c>
-      <c r="G18" s="6" t="b">
+      <c r="A18" s="11">
+        <v>165</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="11">
+        <v>964</v>
+      </c>
+      <c r="G18" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J18" s="12">
@@ -6116,25 +6231,25 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>86</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="6">
-        <v>563</v>
-      </c>
-      <c r="G19" s="6" t="b">
+      <c r="A19" s="10">
+        <v>624</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="10">
+        <v>931</v>
+      </c>
+      <c r="G19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="12">
@@ -6171,25 +6286,25 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>343</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="5">
-        <v>406</v>
-      </c>
-      <c r="G20" s="5" t="b">
+      <c r="A20" s="11">
+        <v>1087</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="11">
+        <v>931</v>
+      </c>
+      <c r="G20" s="11" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="12">
@@ -6223,25 +6338,25 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>409</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="6">
-        <v>406</v>
-      </c>
-      <c r="G21" s="6" t="b">
+      <c r="A21" s="10">
+        <v>333</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="10">
+        <v>926</v>
+      </c>
+      <c r="G21" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J21" s="12">
@@ -6270,25 +6385,25 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>89</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="12">
-        <v>341</v>
-      </c>
-      <c r="G22" s="12" t="b">
+      <c r="A22" s="8">
+        <v>1231</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="8">
+        <v>895</v>
+      </c>
+      <c r="G22" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N22" s="12">
@@ -6296,25 +6411,25 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
-        <v>35</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="13">
-        <v>487</v>
-      </c>
-      <c r="G23" s="13" t="b">
+      <c r="A23" s="7">
+        <v>1251</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="7">
+        <v>851</v>
+      </c>
+      <c r="G23" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N23" s="13">
@@ -6322,25 +6437,25 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>665</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="A24" s="8">
+        <v>1253</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="7">
-        <v>318</v>
-      </c>
-      <c r="G24" s="7" t="b">
+        <v>93</v>
+      </c>
+      <c r="F24" s="8">
+        <v>851</v>
+      </c>
+      <c r="G24" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N24" s="12">
@@ -6363,25 +6478,25 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>740</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="A25" s="7">
+        <v>1416</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="8">
-        <v>995</v>
-      </c>
-      <c r="G25" s="8" t="b">
+      <c r="F25" s="7">
+        <v>851</v>
+      </c>
+      <c r="G25" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N25" s="13">
@@ -6404,25 +6519,25 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>628</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="A26" s="8">
+        <v>34</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="7">
-        <v>990</v>
-      </c>
-      <c r="G26" s="7" t="b">
+      <c r="F26" s="8">
+        <v>837</v>
+      </c>
+      <c r="G26" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N26" s="12">
@@ -6450,25 +6565,25 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>121</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="A27" s="7">
+        <v>96</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="8">
-        <v>983</v>
-      </c>
-      <c r="G27" s="8" t="b">
+      <c r="F27" s="7">
+        <v>837</v>
+      </c>
+      <c r="G27" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N27" s="13">
@@ -6496,25 +6611,25 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>1217</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="A28" s="8">
+        <v>809</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="7">
-        <v>978</v>
-      </c>
-      <c r="G28" s="7" t="b">
+      <c r="F28" s="8">
+        <v>816</v>
+      </c>
+      <c r="G28" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N28" s="12">
@@ -6542,25 +6657,25 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>118</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="A29" s="7">
+        <v>907</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="8">
-        <v>978</v>
-      </c>
-      <c r="G29" s="8" t="b">
+      <c r="F29" s="7">
+        <v>816</v>
+      </c>
+      <c r="G29" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N29" s="13">
@@ -6588,25 +6703,25 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>119</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="A30" s="8">
+        <v>454</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="7">
-        <v>978</v>
-      </c>
-      <c r="G30" s="7" t="b">
+      <c r="F30" s="8">
+        <v>809</v>
+      </c>
+      <c r="G30" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N30" s="12">
@@ -6614,25 +6729,25 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>281</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="A31" s="7">
+        <v>2506</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="8">
-        <v>969</v>
-      </c>
-      <c r="G31" s="8" t="b">
+      <c r="F31" s="7">
+        <v>791</v>
+      </c>
+      <c r="G31" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N31" s="13">
@@ -6640,25 +6755,25 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>282</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="A32" s="8">
+        <v>2792</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="7">
-        <v>969</v>
-      </c>
-      <c r="G32" s="7" t="b">
+      <c r="F32" s="8">
+        <v>791</v>
+      </c>
+      <c r="G32" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N32" s="12">
@@ -6666,25 +6781,25 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>165</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="8" t="s">
+      <c r="A33" s="7">
+        <v>3011</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="8">
-        <v>964</v>
-      </c>
-      <c r="G33" s="8" t="b">
+      <c r="F33" s="7">
+        <v>791</v>
+      </c>
+      <c r="G33" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N33" s="13">
@@ -6692,25 +6807,25 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>624</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="A34" s="8">
+        <v>1300</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="7">
-        <v>931</v>
-      </c>
-      <c r="G34" s="7" t="b">
+      <c r="F34" s="8">
+        <v>783</v>
+      </c>
+      <c r="G34" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N34" s="12">
@@ -6718,25 +6833,25 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>1087</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="A35" s="7">
+        <v>1301</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="8">
-        <v>931</v>
-      </c>
-      <c r="G35" s="8" t="b">
+      <c r="F35" s="7">
+        <v>783</v>
+      </c>
+      <c r="G35" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N35" s="13">
@@ -6744,25 +6859,25 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>333</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="A36" s="8">
+        <v>1302</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="7">
-        <v>926</v>
-      </c>
-      <c r="G36" s="7" t="b">
+      <c r="F36" s="8">
+        <v>783</v>
+      </c>
+      <c r="G36" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N36" s="12">
@@ -6770,25 +6885,25 @@
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>1231</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="A37" s="7">
+        <v>250</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="8">
-        <v>895</v>
-      </c>
-      <c r="G37" s="8" t="b">
+      <c r="F37" s="7">
+        <v>755</v>
+      </c>
+      <c r="G37" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N37" s="13">
@@ -6796,25 +6911,25 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>1251</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="A38" s="8">
+        <v>257</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="7">
-        <v>851</v>
-      </c>
-      <c r="G38" s="7" t="b">
+      <c r="F38" s="8">
+        <v>755</v>
+      </c>
+      <c r="G38" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N38" s="12">
@@ -6822,25 +6937,25 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>1253</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="A39" s="7">
+        <v>258</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="8">
-        <v>851</v>
-      </c>
-      <c r="G39" s="8" t="b">
+      <c r="F39" s="7">
+        <v>755</v>
+      </c>
+      <c r="G39" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N39" s="13">
@@ -6848,25 +6963,25 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
-        <v>1416</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="A40" s="8">
+        <v>500</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="7">
-        <v>851</v>
-      </c>
-      <c r="G40" s="7" t="b">
+      <c r="F40" s="8">
+        <v>755</v>
+      </c>
+      <c r="G40" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N40" s="12">
@@ -6874,25 +6989,25 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>34</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="A41" s="7">
+        <v>64</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="8">
-        <v>837</v>
-      </c>
-      <c r="G41" s="8" t="b">
+      <c r="F41" s="7">
+        <v>745</v>
+      </c>
+      <c r="G41" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N41" s="13">
@@ -6900,25 +7015,25 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
-        <v>96</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="A42" s="8">
+        <v>65</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="7">
-        <v>837</v>
-      </c>
-      <c r="G42" s="7" t="b">
+      <c r="F42" s="8">
+        <v>745</v>
+      </c>
+      <c r="G42" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N42" s="12">
@@ -6926,25 +7041,25 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>809</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="8">
-        <v>816</v>
-      </c>
-      <c r="G43" s="8" t="b">
+      <c r="A43" s="13">
+        <v>586</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="13">
+        <v>694</v>
+      </c>
+      <c r="G43" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N43" s="13">
@@ -6953,10 +7068,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
-        <v>907</v>
+        <v>601</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>8</v>
@@ -6968,7 +7083,7 @@
         <v>93</v>
       </c>
       <c r="F44" s="7">
-        <v>816</v>
+        <v>693</v>
       </c>
       <c r="G44" s="7" t="b">
         <v>1</v>
@@ -6979,10 +7094,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <v>454</v>
+        <v>347</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>8</v>
@@ -6994,7 +7109,7 @@
         <v>93</v>
       </c>
       <c r="F45" s="8">
-        <v>809</v>
+        <v>690</v>
       </c>
       <c r="G45" s="8" t="b">
         <v>1</v>
@@ -7005,10 +7120,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
-        <v>2506</v>
+        <v>348</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>8</v>
@@ -7020,7 +7135,7 @@
         <v>93</v>
       </c>
       <c r="F46" s="7">
-        <v>791</v>
+        <v>690</v>
       </c>
       <c r="G46" s="7" t="b">
         <v>1</v>
@@ -7031,10 +7146,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
-        <v>2792</v>
+        <v>1116</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>8</v>
@@ -7046,7 +7161,7 @@
         <v>93</v>
       </c>
       <c r="F47" s="8">
-        <v>791</v>
+        <v>672</v>
       </c>
       <c r="G47" s="8" t="b">
         <v>1</v>
@@ -7057,10 +7172,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
-        <v>3011</v>
+        <v>155</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>8</v>
@@ -7072,7 +7187,7 @@
         <v>93</v>
       </c>
       <c r="F48" s="7">
-        <v>791</v>
+        <v>669</v>
       </c>
       <c r="G48" s="7" t="b">
         <v>1</v>
@@ -7083,10 +7198,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <v>1300</v>
+        <v>239</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>8</v>
@@ -7098,7 +7213,7 @@
         <v>93</v>
       </c>
       <c r="F49" s="8">
-        <v>783</v>
+        <v>666</v>
       </c>
       <c r="G49" s="8" t="b">
         <v>1</v>
@@ -7109,10 +7224,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
-        <v>1301</v>
+        <v>240</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>8</v>
@@ -7124,7 +7239,7 @@
         <v>93</v>
       </c>
       <c r="F50" s="7">
-        <v>783</v>
+        <v>666</v>
       </c>
       <c r="G50" s="7" t="b">
         <v>1</v>
@@ -7134,25 +7249,25 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>1302</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="8">
-        <v>783</v>
-      </c>
-      <c r="G51" s="8" t="b">
+      <c r="A51" s="12">
+        <v>188</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="12">
+        <v>665</v>
+      </c>
+      <c r="G51" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N51" s="13">
@@ -7160,25 +7275,25 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>250</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="7">
-        <v>755</v>
-      </c>
-      <c r="G52" s="7" t="b">
+      <c r="A52" s="13">
+        <v>86</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="13">
+        <v>563</v>
+      </c>
+      <c r="G52" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N52" s="12">
@@ -7186,25 +7301,25 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
-        <v>257</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>30</v>
+      <c r="A53" s="12">
+        <v>64</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="8">
-        <v>755</v>
-      </c>
-      <c r="G53" s="8" t="b">
+      <c r="F53" s="12">
+        <v>536</v>
+      </c>
+      <c r="G53" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N53" s="13">
@@ -7212,25 +7327,25 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>258</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="A54" s="8">
+        <v>142</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="7">
-        <v>755</v>
-      </c>
-      <c r="G54" s="7" t="b">
+      <c r="F54" s="8">
+        <v>536</v>
+      </c>
+      <c r="G54" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N54" s="12">
@@ -7238,25 +7353,25 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>500</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="8" t="s">
+      <c r="A55" s="7">
+        <v>143</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="8">
-        <v>755</v>
-      </c>
-      <c r="G55" s="8" t="b">
+      <c r="F55" s="7">
+        <v>536</v>
+      </c>
+      <c r="G55" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N55" s="13">
@@ -7264,25 +7379,25 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>64</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>30</v>
+      <c r="A56" s="13">
+        <v>309</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="7">
-        <v>745</v>
-      </c>
-      <c r="G56" s="7" t="b">
+      <c r="F56" s="13">
+        <v>527</v>
+      </c>
+      <c r="G56" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N56" s="12">
@@ -7291,10 +7406,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
-        <v>65</v>
+        <v>369</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>8</v>
@@ -7306,7 +7421,7 @@
         <v>93</v>
       </c>
       <c r="F57" s="8">
-        <v>745</v>
+        <v>524</v>
       </c>
       <c r="G57" s="8" t="b">
         <v>1</v>
@@ -7317,10 +7432,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
-        <v>601</v>
+        <v>370</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>8</v>
@@ -7332,7 +7447,7 @@
         <v>93</v>
       </c>
       <c r="F58" s="7">
-        <v>693</v>
+        <v>524</v>
       </c>
       <c r="G58" s="7" t="b">
         <v>1</v>
@@ -7343,10 +7458,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
-        <v>347</v>
+        <v>115</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>8</v>
@@ -7358,7 +7473,7 @@
         <v>93</v>
       </c>
       <c r="F59" s="8">
-        <v>690</v>
+        <v>524</v>
       </c>
       <c r="G59" s="8" t="b">
         <v>1</v>
@@ -7368,25 +7483,25 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>348</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="7">
-        <v>690</v>
-      </c>
-      <c r="G60" s="7" t="b">
+      <c r="A60" s="12">
+        <v>118</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" s="12">
+        <v>522</v>
+      </c>
+      <c r="G60" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N60" s="12">
@@ -7394,25 +7509,25 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
-        <v>1116</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>30</v>
+      <c r="A61" s="13">
+        <v>24</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="8">
-        <v>672</v>
-      </c>
-      <c r="G61" s="8" t="b">
+      <c r="F61" s="13">
+        <v>520</v>
+      </c>
+      <c r="G61" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N61" s="13">
@@ -7420,25 +7535,25 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>155</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>30</v>
+      <c r="A62" s="12">
+        <v>51</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="7">
-        <v>669</v>
-      </c>
-      <c r="G62" s="7" t="b">
+      <c r="F62" s="12">
+        <v>517</v>
+      </c>
+      <c r="G62" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N62" s="12">
@@ -7446,25 +7561,25 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
-        <v>239</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>30</v>
+      <c r="A63" s="13">
+        <v>137</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F63" s="8">
-        <v>666</v>
-      </c>
-      <c r="G63" s="8" t="b">
+      <c r="F63" s="13">
+        <v>516</v>
+      </c>
+      <c r="G63" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N63" s="13">
@@ -7473,10 +7588,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>8</v>
@@ -7488,7 +7603,7 @@
         <v>93</v>
       </c>
       <c r="F64" s="7">
-        <v>666</v>
+        <v>514</v>
       </c>
       <c r="G64" s="7" t="b">
         <v>1</v>
@@ -7498,25 +7613,25 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
-        <v>64</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>9</v>
+      <c r="A65" s="8">
+        <v>493</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F65" s="12">
-        <v>536</v>
-      </c>
-      <c r="G65" s="12" t="b">
+      <c r="F65" s="8">
+        <v>509</v>
+      </c>
+      <c r="G65" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N65" s="12">
@@ -7524,25 +7639,25 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>142</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="A66" s="7">
+        <v>257</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="8">
-        <v>536</v>
-      </c>
-      <c r="G66" s="8" t="b">
+      <c r="F66" s="7">
+        <v>508</v>
+      </c>
+      <c r="G66" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N66" s="12">
@@ -7550,25 +7665,25 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>143</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="A67" s="8">
+        <v>2624</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="7">
-        <v>536</v>
-      </c>
-      <c r="G67" s="7" t="b">
+      <c r="F67" s="8">
+        <v>508</v>
+      </c>
+      <c r="G67" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N67" s="12">
@@ -7576,25 +7691,25 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="13">
-        <v>309</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>9</v>
+      <c r="A68" s="7">
+        <v>70</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F68" s="13">
-        <v>527</v>
-      </c>
-      <c r="G68" s="13" t="b">
+      <c r="F68" s="7">
+        <v>506</v>
+      </c>
+      <c r="G68" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N68" s="12">
@@ -7603,10 +7718,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
-        <v>369</v>
+        <v>71</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>8</v>
@@ -7618,7 +7733,7 @@
         <v>93</v>
       </c>
       <c r="F69" s="8">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G69" s="8" t="b">
         <v>1</v>
@@ -7629,10 +7744,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
-        <v>370</v>
+        <v>72</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>8</v>
@@ -7644,7 +7759,7 @@
         <v>93</v>
       </c>
       <c r="F70" s="7">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G70" s="7" t="b">
         <v>1</v>
@@ -7655,10 +7770,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>8</v>
@@ -7670,7 +7785,7 @@
         <v>93</v>
       </c>
       <c r="F71" s="8">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="G71" s="8" t="b">
         <v>1</v>
@@ -7680,25 +7795,25 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="13">
-        <v>24</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>9</v>
+      <c r="A72" s="7">
+        <v>120</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F72" s="13">
-        <v>520</v>
-      </c>
-      <c r="G72" s="13" t="b">
+      <c r="F72" s="7">
+        <v>504</v>
+      </c>
+      <c r="G72" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N72" s="12">
@@ -7706,25 +7821,25 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="12">
-        <v>51</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>9</v>
+      <c r="A73" s="8">
+        <v>205</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F73" s="12">
-        <v>517</v>
-      </c>
-      <c r="G73" s="12" t="b">
+      <c r="F73" s="8">
+        <v>499</v>
+      </c>
+      <c r="G73" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N73" s="12">
@@ -7732,25 +7847,25 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="13">
-        <v>137</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>9</v>
+      <c r="A74" s="7">
+        <v>650</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F74" s="13">
-        <v>516</v>
-      </c>
-      <c r="G74" s="13" t="b">
+      <c r="F74" s="7">
+        <v>498</v>
+      </c>
+      <c r="G74" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N74" s="12">
@@ -7758,25 +7873,25 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>76</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="7" t="s">
+      <c r="A75" s="8">
+        <v>651</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F75" s="7">
-        <v>514</v>
-      </c>
-      <c r="G75" s="7" t="b">
+      <c r="F75" s="8">
+        <v>498</v>
+      </c>
+      <c r="G75" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N75" s="12">
@@ -7784,25 +7899,25 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>493</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="8" t="s">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F76" s="8">
-        <v>509</v>
-      </c>
-      <c r="G76" s="8" t="b">
+      <c r="F76" s="7">
+        <v>496</v>
+      </c>
+      <c r="G76" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N76" s="12">
@@ -7810,25 +7925,25 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>257</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="12">
         <v>29</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>30</v>
+      <c r="B77" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F77" s="7">
-        <v>508</v>
-      </c>
-      <c r="G77" s="7" t="b">
+      <c r="F77" s="12">
+        <v>494</v>
+      </c>
+      <c r="G77" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N77" s="12">
@@ -7836,25 +7951,25 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>2624</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>30</v>
+      <c r="A78" s="13">
+        <v>49</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F78" s="8">
-        <v>508</v>
-      </c>
-      <c r="G78" s="8" t="b">
+      <c r="F78" s="13">
+        <v>493</v>
+      </c>
+      <c r="G78" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N78" s="12">
@@ -7862,25 +7977,25 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>70</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F79" s="7">
-        <v>506</v>
-      </c>
-      <c r="G79" s="7" t="b">
+      <c r="A79" s="12">
+        <v>60</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F79" s="12">
+        <v>491</v>
+      </c>
+      <c r="G79" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N79" s="12">
@@ -7889,10 +8004,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>8</v>
@@ -7904,7 +8019,7 @@
         <v>93</v>
       </c>
       <c r="F80" s="8">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="G80" s="8" t="b">
         <v>1</v>
@@ -7915,10 +8030,10 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>8</v>
@@ -7930,7 +8045,7 @@
         <v>93</v>
       </c>
       <c r="F81" s="7">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="G81" s="7" t="b">
         <v>1</v>
@@ -7941,10 +8056,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>8</v>
@@ -7956,7 +8071,7 @@
         <v>93</v>
       </c>
       <c r="F82" s="8">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="G82" s="8" t="b">
         <v>1</v>
@@ -7967,10 +8082,10 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
-        <v>120</v>
+        <v>370</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>8</v>
@@ -7982,7 +8097,7 @@
         <v>93</v>
       </c>
       <c r="F83" s="7">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G83" s="7" t="b">
         <v>1</v>
@@ -7993,10 +8108,10 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
-        <v>205</v>
+        <v>470</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>8</v>
@@ -8008,7 +8123,7 @@
         <v>93</v>
       </c>
       <c r="F84" s="8">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G84" s="8" t="b">
         <v>1</v>
@@ -8018,25 +8133,25 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
-        <v>650</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F85" s="7">
-        <v>498</v>
-      </c>
-      <c r="G85" s="7" t="b">
+      <c r="A85" s="13">
+        <v>35</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F85" s="13">
+        <v>487</v>
+      </c>
+      <c r="G85" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N85" s="12">
@@ -8044,25 +8159,25 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>651</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F86" s="8">
-        <v>498</v>
-      </c>
-      <c r="G86" s="8" t="b">
+      <c r="A86" s="7">
+        <v>138</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" s="7">
+        <v>486</v>
+      </c>
+      <c r="G86" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N86" s="12">
@@ -8070,25 +8185,25 @@
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
-        <v>75</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" s="7">
-        <v>496</v>
-      </c>
-      <c r="G87" s="7" t="b">
+      <c r="A87" s="8">
+        <v>139</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="8">
+        <v>486</v>
+      </c>
+      <c r="G87" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N87" s="12">
@@ -8096,25 +8211,25 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="12">
-        <v>29</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>9</v>
+      <c r="A88" s="7">
+        <v>589</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F88" s="12">
-        <v>494</v>
-      </c>
-      <c r="G88" s="12" t="b">
+      <c r="F88" s="7">
+        <v>485</v>
+      </c>
+      <c r="G88" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N88" s="12">
@@ -8122,25 +8237,25 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="13">
-        <v>49</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>9</v>
+      <c r="A89" s="8">
+        <v>590</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F89" s="13">
-        <v>493</v>
-      </c>
-      <c r="G89" s="13" t="b">
+      <c r="F89" s="8">
+        <v>485</v>
+      </c>
+      <c r="G89" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N89" s="12">
@@ -8148,25 +8263,25 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>32</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="A90" s="7">
+        <v>742</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F90" s="8">
-        <v>491</v>
-      </c>
-      <c r="G90" s="8" t="b">
+      <c r="F90" s="7">
+        <v>485</v>
+      </c>
+      <c r="G90" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N90" s="12">
@@ -8174,25 +8289,25 @@
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>183</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="A91" s="8">
+        <v>44</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E91" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="7">
-        <v>490</v>
-      </c>
-      <c r="G91" s="7" t="b">
+      <c r="F91" s="8">
+        <v>483</v>
+      </c>
+      <c r="G91" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N91" s="12">
@@ -8200,25 +8315,25 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>185</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="A92" s="7">
+        <v>327</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="8">
-        <v>490</v>
-      </c>
-      <c r="G92" s="8" t="b">
+      <c r="F92" s="7">
+        <v>482</v>
+      </c>
+      <c r="G92" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N92" s="12">
@@ -8226,25 +8341,25 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
-        <v>370</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="7" t="s">
+      <c r="A93" s="8">
+        <v>122</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F93" s="7">
-        <v>490</v>
-      </c>
-      <c r="G93" s="7" t="b">
+      <c r="F93" s="8">
+        <v>482</v>
+      </c>
+      <c r="G93" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N93" s="12">
@@ -8252,25 +8367,25 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
-        <v>470</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="A94" s="7">
+        <v>106</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F94" s="8">
-        <v>489</v>
-      </c>
-      <c r="G94" s="8" t="b">
+      <c r="F94" s="7">
+        <v>478</v>
+      </c>
+      <c r="G94" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N94" s="12">
@@ -8278,25 +8393,25 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
-        <v>589</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="7" t="s">
+      <c r="A95" s="8">
+        <v>835</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E95" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F95" s="7">
-        <v>485</v>
-      </c>
-      <c r="G95" s="7" t="b">
+      <c r="F95" s="8">
+        <v>475</v>
+      </c>
+      <c r="G95" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N95" s="12">
@@ -8304,25 +8419,25 @@
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
-        <v>590</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E96" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F96" s="8">
-        <v>485</v>
-      </c>
-      <c r="G96" s="8" t="b">
+      <c r="A96" s="13">
+        <v>96</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F96" s="13">
+        <v>474</v>
+      </c>
+      <c r="G96" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N96" s="12">
@@ -8330,25 +8445,25 @@
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
-        <v>742</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>30</v>
+      <c r="A97" s="12">
+        <v>89</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F97" s="7">
-        <v>485</v>
-      </c>
-      <c r="G97" s="7" t="b">
+      <c r="F97" s="12">
+        <v>474</v>
+      </c>
+      <c r="G97" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N97" s="13">
@@ -8356,25 +8471,25 @@
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
-        <v>44</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="8" t="s">
+      <c r="A98" s="7">
+        <v>296</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F98" s="8">
-        <v>483</v>
-      </c>
-      <c r="G98" s="8" t="b">
+      <c r="F98" s="7">
+        <v>469</v>
+      </c>
+      <c r="G98" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N98" s="12">
@@ -8382,25 +8497,25 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <v>327</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="7" t="s">
+      <c r="A99" s="8">
+        <v>464</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F99" s="7">
-        <v>482</v>
-      </c>
-      <c r="G99" s="7" t="b">
+      <c r="F99" s="8">
+        <v>459</v>
+      </c>
+      <c r="G99" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N99" s="13">
@@ -8408,25 +8523,25 @@
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>122</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="8" t="s">
+      <c r="A100" s="7">
+        <v>470</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F100" s="8">
-        <v>482</v>
-      </c>
-      <c r="G100" s="8" t="b">
+      <c r="F100" s="7">
+        <v>459</v>
+      </c>
+      <c r="G100" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N100" s="12">
@@ -8434,25 +8549,25 @@
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <v>106</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="7" t="s">
+      <c r="A101" s="8">
+        <v>324</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F101" s="7">
-        <v>478</v>
-      </c>
-      <c r="G101" s="7" t="b">
+      <c r="F101" s="8">
+        <v>445</v>
+      </c>
+      <c r="G101" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N101" s="13">
@@ -8460,25 +8575,25 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>835</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="8" t="s">
+      <c r="A102" s="7">
+        <v>325</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F102" s="8">
-        <v>475</v>
-      </c>
-      <c r="G102" s="8" t="b">
+      <c r="F102" s="7">
+        <v>445</v>
+      </c>
+      <c r="G102" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N102" s="12">
@@ -8487,10 +8602,10 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>8</v>
@@ -8498,11 +8613,11 @@
       <c r="D103" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>93</v>
+      <c r="E103" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="F103" s="12">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="G103" s="12" t="b">
         <v>1</v>
@@ -8512,25 +8627,25 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
-        <v>296</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F104" s="7">
-        <v>469</v>
-      </c>
-      <c r="G104" s="7" t="b">
+      <c r="A104" s="13">
+        <v>409</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="13">
+        <v>406</v>
+      </c>
+      <c r="G104" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N104" s="12">
@@ -8539,10 +8654,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
-        <v>464</v>
+        <v>600</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>8</v>
@@ -8554,7 +8669,7 @@
         <v>93</v>
       </c>
       <c r="F105" s="8">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="G105" s="8" t="b">
         <v>1</v>
@@ -8564,25 +8679,25 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
-        <v>470</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F106" s="7">
-        <v>459</v>
-      </c>
-      <c r="G106" s="7" t="b">
+      <c r="A106" s="12">
+        <v>89</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" s="12">
+        <v>341</v>
+      </c>
+      <c r="G106" s="12" t="b">
         <v>1</v>
       </c>
       <c r="N106" s="12">
@@ -8590,25 +8705,25 @@
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
-        <v>324</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="8" t="s">
+      <c r="A107" s="7">
+        <v>137</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F107" s="8">
-        <v>445</v>
-      </c>
-      <c r="G107" s="8" t="b">
+      <c r="F107" s="7">
+        <v>340</v>
+      </c>
+      <c r="G107" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N107" s="12">
@@ -8616,25 +8731,25 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
-        <v>325</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="7" t="s">
+      <c r="A108" s="8">
+        <v>133</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F108" s="7">
-        <v>445</v>
-      </c>
-      <c r="G108" s="7" t="b">
+      <c r="F108" s="8">
+        <v>339</v>
+      </c>
+      <c r="G108" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N108" s="12">
@@ -8642,25 +8757,25 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
-        <v>600</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="A109" s="7">
+        <v>665</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F109" s="8">
-        <v>399</v>
-      </c>
-      <c r="G109" s="8" t="b">
+        <v>97</v>
+      </c>
+      <c r="F109" s="7">
+        <v>318</v>
+      </c>
+      <c r="G109" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N109" s="12">
@@ -8668,25 +8783,25 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
-        <v>137</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="7" t="s">
+      <c r="A110" s="8">
+        <v>146</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F110" s="7">
-        <v>340</v>
-      </c>
-      <c r="G110" s="7" t="b">
+      <c r="F110" s="8">
+        <v>309</v>
+      </c>
+      <c r="G110" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N110" s="12">
@@ -8694,25 +8809,25 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
-        <v>133</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="A111" s="7">
+        <v>147</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F111" s="8">
-        <v>339</v>
-      </c>
-      <c r="G111" s="8" t="b">
+      <c r="F111" s="7">
+        <v>309</v>
+      </c>
+      <c r="G111" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N111" s="12">
@@ -8721,10 +8836,10 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
-        <v>146</v>
+        <v>2091</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>8</v>
@@ -8736,7 +8851,7 @@
         <v>93</v>
       </c>
       <c r="F112" s="8">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="G112" s="8" t="b">
         <v>1</v>
@@ -8747,10 +8862,10 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
-        <v>147</v>
+        <v>2092</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>8</v>
@@ -8762,7 +8877,7 @@
         <v>93</v>
       </c>
       <c r="F113" s="7">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="G113" s="7" t="b">
         <v>1</v>
@@ -8773,10 +8888,10 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
-        <v>2091</v>
+        <v>349</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>8</v>
@@ -8788,7 +8903,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="8">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="G114" s="8" t="b">
         <v>1</v>
@@ -8799,10 +8914,10 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
-        <v>2092</v>
+        <v>358</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>8</v>
@@ -8814,7 +8929,7 @@
         <v>93</v>
       </c>
       <c r="F115" s="7">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="G115" s="7" t="b">
         <v>1</v>
@@ -8825,7 +8940,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>40</v>
@@ -8851,7 +8966,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>40</v>
@@ -8877,7 +8992,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>40</v>
@@ -8903,7 +9018,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>40</v>
@@ -8929,7 +9044,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B120" s="8" t="s">
         <v>40</v>
@@ -8955,7 +9070,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>40</v>
@@ -8981,7 +9096,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B122" s="8" t="s">
         <v>40</v>
@@ -9007,7 +9122,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>40</v>
@@ -9033,10 +9148,10 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
-        <v>429</v>
+        <v>1232</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>8</v>
@@ -9048,7 +9163,7 @@
         <v>93</v>
       </c>
       <c r="F124" s="8">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="G124" s="8" t="b">
         <v>1</v>
@@ -9059,10 +9174,10 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
-        <v>438</v>
+        <v>657</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>8</v>
@@ -9074,7 +9189,7 @@
         <v>93</v>
       </c>
       <c r="F125" s="7">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="G125" s="7" t="b">
         <v>1</v>
@@ -9085,10 +9200,10 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
-        <v>1232</v>
+        <v>658</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>8</v>
@@ -9100,7 +9215,7 @@
         <v>93</v>
       </c>
       <c r="F126" s="8">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G126" s="8" t="b">
         <v>1</v>
@@ -9110,25 +9225,25 @@
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
-        <v>657</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>30</v>
+      <c r="A127" s="13">
+        <v>63</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F127" s="7">
-        <v>93</v>
-      </c>
-      <c r="G127" s="7" t="b">
+      <c r="F127" s="13">
+        <v>4</v>
+      </c>
+      <c r="G127" s="13" t="b">
         <v>1</v>
       </c>
       <c r="N127" s="13">
@@ -9136,25 +9251,25 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
-        <v>658</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F128" s="8">
-        <v>93</v>
-      </c>
-      <c r="G128" s="8" t="b">
+      <c r="A128" s="7">
+        <v>138</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F128" s="7">
+        <v>1</v>
+      </c>
+      <c r="G128" s="7" t="b">
         <v>1</v>
       </c>
       <c r="N128" s="12">
@@ -9162,25 +9277,25 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="13">
-        <v>63</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F129" s="13">
-        <v>4</v>
-      </c>
-      <c r="G129" s="13" t="b">
+      <c r="A129" s="8">
+        <v>139</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F129" s="8">
+        <v>1</v>
+      </c>
+      <c r="G129" s="8" t="b">
         <v>1</v>
       </c>
       <c r="N129" s="13">
@@ -9603,6 +9718,22 @@
       </c>
       <c r="G146" s="10" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
